--- a/src/main/resources/office/国内模板.xlsx
+++ b/src/main/resources/office/国内模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hh\IdeaProjects\java\src\main\resources\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD248DA-141C-4867-ACCB-3C514DE9D3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA63C0-6F1D-4304-B022-313B59EA309F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BF33643-E95D-465B-9989-15DB3DFB9B1D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t/>
   </si>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>{currentGear}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{trayNo}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -772,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +780,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -796,157 +918,7 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339F996C-1EAC-4276-99EC-68C349C5352A}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:J34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -1865,930 +1837,1018 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="36.9" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="27" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="44" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.9" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="46" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="33.9" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="50" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="47" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:13" ht="27" customHeight="1">
+      <c r="A7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="21" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="21" customHeight="1">
+      <c r="A10" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A11" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="21" customHeight="1">
+      <c r="A12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="21" customHeight="1">
+      <c r="A14" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21" customHeight="1">
+      <c r="A16" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A17" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1">
+      <c r="A18" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A19" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1">
+      <c r="A20" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1">
+      <c r="A22" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A23" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1">
+      <c r="A24" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A25" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1">
+      <c r="A26" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1">
+      <c r="A28" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A29" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="46"/>
+      <c r="G29" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1">
+      <c r="A30" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.9" customHeight="1">
+      <c r="A31" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="46"/>
+      <c r="G31" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="33.9" customHeight="1">
+      <c r="A32" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+    </row>
+    <row r="33" spans="1:10" ht="33.9" customHeight="1">
+      <c r="A33" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:13" ht="27" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="21" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="21" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A26" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="12.9" customHeight="1">
-      <c r="A32" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="33.9" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" ht="33.9" customHeight="1">
-      <c r="A34" s="6" t="s">
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+    </row>
+    <row r="34" spans="1:10" ht="29.1" customHeight="1">
+      <c r="A34" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" ht="29.1" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="116">
+  <mergeCells count="115">
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:J2"/>
     <mergeCell ref="A3:B4"/>
@@ -2796,111 +2856,8 @@
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
